--- a/outputs/autoaprop.xlsx/autoapropxlsx/IP-CLF_1_2.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/IP-CLF_1_2.XLSX
@@ -136,7 +136,7 @@
     <t>VÂNIA MARQUES DA COSTA</t>
   </si>
   <si>
-    <t> </t>
+    <t>JULIANA OLIVEIRA</t>
   </si>
   <si>
     <t> </t>
@@ -154,7 +154,7 @@
     <t>2932</t>
   </si>
   <si>
-    <t> </t>
+    <t>3519</t>
   </si>
   <si>
     <t> </t>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>JULIANA OLIVEIRA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>JULIANA OLIVEIRA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>JULIANA OLIVEIRA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>JULIANA OLIVEIRA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>JULIANA OLIVEIRA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>JULIANA OLIVEIRA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3519</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
